--- a/W1D2_ESERCIZIO 2.xlsx
+++ b/W1D2_ESERCIZIO 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\Desktop\Data analyst corso\esercizi\M2-1-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21F77D4-17DE-40E2-9760-E1AA1BA21C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1AF137-6638-47AB-B3C3-A680816F9588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Assoluti_Iva" sheetId="15" r:id="rId1"/>
@@ -37,8 +37,7 @@
     <definedName name="DATI">Assoluti_Iva!$A$4:$C$340</definedName>
     <definedName name="HD">Assoluti_Iva!$A$82:$C$105</definedName>
     <definedName name="impo">Assoluti_Iva!$C$5:$C$340</definedName>
-    <definedName name="IMPONIBILE">Assoluti_Iva!$C:$C</definedName>
-    <definedName name="IMPONIBILE1">Assoluti_Iva!$C$5:$C$152</definedName>
+    <definedName name="IMPONIBILE">Assoluti_Iva!$C$4:$C$340</definedName>
     <definedName name="import">LOGICA!$D$2:$D$80</definedName>
     <definedName name="IMPORTO">#REF!</definedName>
     <definedName name="IO_B">Assoluti_Iva!$A$66:$C$80</definedName>
@@ -704,14 +703,14 @@
     <t>ultimo</t>
   </si>
   <si>
-    <t>esiste un modo più veloce?</t>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
@@ -722,6 +721,7 @@
     <numFmt numFmtId="171" formatCode="0.0"/>
     <numFmt numFmtId="172" formatCode="#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="173" formatCode="#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="174" formatCode="#,##0.00\ [$€-803];\-#,##0.00\ [$€-803]"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -921,7 +921,7 @@
     <xf numFmtId="169" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -950,6 +950,10 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="6" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -959,10 +963,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma [0]" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -977,21 +978,7 @@
     <cellStyle name="Valuta 2" xfId="7" xr:uid="{207091F5-721C-455F-B370-D6B4AD03B231}"/>
     <cellStyle name="Valuta_gestione clienti(out)-1" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1010,6 +997,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1322,7 +1316,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1334,31 +1328,31 @@
     <col min="5" max="5" width="8.7109375" style="7"/>
     <col min="6" max="6" width="10.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D2" s="31">
+      <c r="D2" s="28">
         <v>300000</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="30">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="7" t="s">
         <v>202</v>
       </c>
@@ -1414,13 +1408,13 @@
         <f>IF(AND(B5=$B$15,C5&lt;$F$2),$F$3,"")</f>
         <v/>
       </c>
-      <c r="G5" s="32">
-        <f>AVERAGE(IMPONIBILE1)</f>
-        <v>493945.94594594592</v>
-      </c>
-      <c r="H5" s="32">
-        <f>SUM(IMPONIBILE1)</f>
-        <v>73104000</v>
+      <c r="G5" s="29">
+        <f>AVERAGE(IMPONIBILE)</f>
+        <v>519442.42424242425</v>
+      </c>
+      <c r="H5" s="29">
+        <f>SUM(IMPONIBILE)</f>
+        <v>171416000</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1461,7 +1455,7 @@
         <v xml:space="preserve"> </v>
       </c>
       <c r="E7" s="7">
-        <f t="shared" si="0"/>
+        <f>IF(A7=$A$7,C7*22%," ")</f>
         <v>75680</v>
       </c>
       <c r="F7" s="7" t="str">
@@ -4811,7 +4805,9 @@
       <c r="B153" t="s">
         <v>24</v>
       </c>
-      <c r="C153" s="10"/>
+      <c r="C153" s="35" t="s">
+        <v>208</v>
+      </c>
       <c r="D153" s="7" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
@@ -9123,12 +9119,12 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="B5:B340">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>B5=$B$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F340">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F$3=F5</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9143,7 +9139,7 @@
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9215,8 +9211,8 @@
         <v>6</v>
       </c>
       <c r="H3" s="22">
-        <f>SUMIF(cate,G3,$D$2:$E$80)</f>
-        <v>611780</v>
+        <f>SUMIF(cate,G3,import)+SUMIF(cate,G3,sped)</f>
+        <v>611998</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9239,8 +9235,8 @@
         <v>64</v>
       </c>
       <c r="H4" s="22">
-        <f>SUMIF(cate,G4,$D$2:$E$80)</f>
-        <v>30860</v>
+        <f>SUMIF(cate,G4,import)+SUMIF(cate,G4,sped)</f>
+        <v>30962</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9263,8 +9259,8 @@
         <v>26</v>
       </c>
       <c r="H5" s="22">
-        <f>SUMIF(cate,G5,$D$2:$E$80)</f>
-        <v>54000</v>
+        <f>SUMIF(cate,G5,import)+SUMIF(cate,G5,sped)</f>
+        <v>54074</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9287,8 +9283,8 @@
         <v>58</v>
       </c>
       <c r="H6" s="22">
-        <f>SUMIF(cate,G6,$D$2:$E$80)</f>
-        <v>6765600</v>
+        <f>SUMIF(cate,G6,import)+SUMIF(cate,G6,sped)</f>
+        <v>6765662</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -9330,8 +9326,8 @@
         <v>75</v>
       </c>
       <c r="H8" s="22">
-        <f>SUMIF(clie,G8,$D$2:$E$80)</f>
-        <v>73450</v>
+        <f>SUMIF(clie,G8,import)+SUMIF(clie,G8,sped)</f>
+        <v>73489</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9354,8 +9350,8 @@
         <v>13</v>
       </c>
       <c r="H9" s="22">
-        <f>SUMIF(clie,G9,$D$2:$E$80)</f>
-        <v>50800</v>
+        <f>SUMIF(clie,G9,import)+SUMIF(clie,G9,sped)</f>
+        <v>50822</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9378,8 +9374,8 @@
         <v>34</v>
       </c>
       <c r="H10" s="22">
-        <f>SUMIF(clie,G10,$D$2:$E$80)</f>
-        <v>98450</v>
+        <f>SUMIF(clie,G10,import)+SUMIF(clie,G10,sped)</f>
+        <v>98471</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9402,8 +9398,8 @@
         <v>15</v>
       </c>
       <c r="H11" s="22">
-        <f>SUMIF(clie,G11,$D$2:$E$80)</f>
-        <v>7950</v>
+        <f>SUMIF(clie,G11,import)+SUMIF(clie,G11,sped)</f>
+        <v>7973</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9426,8 +9422,8 @@
         <v>31</v>
       </c>
       <c r="H12" s="22">
-        <f>SUMIF(clie,G12,$D$2:$E$80)</f>
-        <v>283000</v>
+        <f>SUMIF(clie,G12,import)+SUMIF(clie,G12,sped)</f>
+        <v>283071</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9450,8 +9446,8 @@
         <v>59</v>
       </c>
       <c r="H13" s="22">
-        <f>SUMIF(clie,G13,$D$2:$E$80)</f>
-        <v>107700</v>
+        <f>SUMIF(clie,G13,import)+SUMIF(clie,G13,sped)</f>
+        <v>107734</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -9474,8 +9470,8 @@
         <v>29</v>
       </c>
       <c r="H14" s="22">
-        <f>SUMIF(clie,G14,$D$2:$E$80)</f>
-        <v>27270</v>
+        <f>SUMIF(clie,G14,import)+SUMIF(clie,G14,sped)</f>
+        <v>27284</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -10620,7 +10616,7 @@
   <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10726,6 +10722,7 @@
       <c r="D8" s="12" t="s">
         <v>199</v>
       </c>
+      <c r="E8" s="31"/>
     </row>
     <row r="9" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
@@ -10735,12 +10732,10 @@
         <v>5</v>
       </c>
       <c r="D9">
-        <f>SUM(COUNTIF(abitanti,"&lt;100") - COUNTIF(abitanti,"&gt;5"))</f>
-        <v>11</v>
-      </c>
-      <c r="E9" s="34" t="s">
-        <v>208</v>
-      </c>
+        <f>COUNTIFS(abitanti,"&gt;10",abitanti,"&lt;100")</f>
+        <v>47</v>
+      </c>
+      <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
